--- a/仕様書/業務フロー図.xlsx
+++ b/仕様書/業務フロー図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82313A68-AC78-4077-BE61-CEC293953224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DB6E9-EA09-41A2-BFFF-B3BBA6FEB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="15480" windowHeight="10905" firstSheet="3" activeTab="5" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
+    <workbookView xWindow="5235" yWindow="0" windowWidth="15360" windowHeight="10905" firstSheet="3" activeTab="4" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="新入社員入社" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,9 +168,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4972,7 +4969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA5D4F0-EAD4-4ED8-9441-3539A2CDA0B7}">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -5031,47 +5028,38 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
@@ -5083,346 +5071,6 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5433,7 +5081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFBCAA-143B-41EC-885A-02CE727537B9}">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -5492,47 +5140,38 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
@@ -5544,346 +5183,6 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5894,7 +5193,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C5153-8D6D-4E4F-AF6C-6117CAA083FA}">
-  <dimension ref="B2:D89"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -5957,47 +5256,38 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -6009,346 +5299,6 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6359,7 +5309,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88AEF95-F4B4-4005-9BBC-5F3F93050426}">
-  <dimension ref="B2:D89"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -6422,47 +5372,38 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -6474,346 +5415,6 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6824,9 +5425,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6F428-F9F9-48B5-BA12-0492E12987EA}">
-  <dimension ref="B2:D95"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6892,72 +5493,58 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -6969,346 +5556,6 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7319,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE214E3-A0A7-436C-B4B9-0D017A235694}">
-  <dimension ref="B2:D108"/>
+  <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7387,137 +5634,110 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
@@ -7529,346 +5749,6 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書/業務フロー図.xlsx
+++ b/仕様書/業務フロー図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DB6E9-EA09-41A2-BFFF-B3BBA6FEB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210B38E4-D21A-44E6-9399-E7DDFAA4EDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="0" windowWidth="15360" windowHeight="10905" firstSheet="3" activeTab="4" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="新入社員入社" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
-    <t>社員</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社評価システム</t>
     <rPh sb="0" eb="4">
       <t>カイシャヒョウカ</t>
@@ -57,9 +50,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
+    <t>評価担当者</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被評価担当者</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,13 +160,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -221,6 +246,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -282,6 +313,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -343,6 +380,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -364,7 +404,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>新入社員情報を登録</a:t>
           </a:r>
         </a:p>
@@ -626,6 +670,12 @@
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -647,10 +697,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>エラーメッセージが</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1043,6 +1101,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1105,6 +1169,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1166,6 +1236,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1449,6 +1522,12 @@
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1866,6 +1945,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1936,6 +2021,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1997,6 +2088,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2280,6 +2374,12 @@
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2697,6 +2797,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2767,6 +2873,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2828,6 +2940,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3111,6 +3226,12 @@
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3528,6 +3649,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3606,6 +3733,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3897,6 +4030,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3964,6 +4100,12 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4050,6 +4192,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4341,6 +4489,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4403,6 +4554,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4639,6 +4796,9 @@
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4667,6 +4827,1594 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB99EBA-F88B-49CD-9819-B48A729F47E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4728881" y="4482353"/>
+          <a:ext cx="0" cy="1411941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403415</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2255505</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>235322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FD7DCC-14DC-4BC5-AD92-8F5FBD048245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3798797" y="5894294"/>
+          <a:ext cx="1852090" cy="705969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員ごとの評価結果出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2252384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2014569</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC8FED2-1292-46C4-ABE0-60403867D3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647766" y="6252884"/>
+          <a:ext cx="2474009" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2013940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2013940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3154B648-7356-4210-A260-EBF086997220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8121146" y="6254316"/>
+          <a:ext cx="0" cy="592479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>884465</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3143251</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>235322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DED302E-1659-4723-8421-A151299D32E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7007679" y="7102929"/>
+          <a:ext cx="2258786" cy="725179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>面談を受ける社員分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を出力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 書類 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D706003-4E65-7D0B-9B9E-2105BB333F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6454588" y="7900147"/>
+          <a:ext cx="1075765" cy="762002"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2017059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2017059</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF66B29-006B-4173-AD3E-04306EA97A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124265" y="7541559"/>
+          <a:ext cx="0" cy="1501588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1154206</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2005854</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038864F4-7D45-4955-8E3E-C81EC261EE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7261412" y="7552765"/>
+          <a:ext cx="851648" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165415</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2891121</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0647EDE7-AFC9-4F24-96FC-3F7E456FEE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7272621" y="9054353"/>
+          <a:ext cx="1725706" cy="705969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>個人成績評価表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルを張り付け</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2891118</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3891643</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="フローチャート: 書類 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5F0082-947F-476F-A8F1-AA7EA8D1C4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9014332" y="8422821"/>
+          <a:ext cx="1000525" cy="818831"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2028265</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2879913</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE158A0-AB1D-4525-AA49-2D67261A37EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8135471" y="8718176"/>
+          <a:ext cx="851648" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2017057</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2028268</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F6B6F6-AA28-47F9-8CC2-131959688D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8140271" y="10142922"/>
+          <a:ext cx="11211" cy="1559218"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165413</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>201703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2891119</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>201702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2FE4E-6898-4F63-9F94-E1F745928035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7272619" y="11273115"/>
+          <a:ext cx="1725706" cy="705969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>印刷</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3367368</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4558393</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート: 書類 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D35327-D464-49F2-B29E-137B61D00FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9490582" y="11647715"/>
+          <a:ext cx="1191025" cy="863655"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員ごとの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個人成績評価表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2891119</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3367368</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5723B3D9-1CD8-420F-B893-AF4CE88E0D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9014333" y="12079543"/>
+          <a:ext cx="476249" cy="1196"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2341947</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1165413</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738C7C7F-D97D-4DF5-A859-EFB74A219DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+          <a:endCxn id="60" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5743733" y="12078341"/>
+          <a:ext cx="1544894" cy="2398"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2341947</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>194501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BB5C50-A849-4603-8F2D-EF18FB3D64D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3891643" y="11715751"/>
+          <a:ext cx="1852090" cy="725179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>評価結果を社員に提示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1959429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>429026</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="フローチャート: 書類 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88542FD-A650-4AB9-BCF2-008230E5C7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5361215" y="10749644"/>
+          <a:ext cx="1191025" cy="863655"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員ごとの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個人成績評価表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1415902</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1959429</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A832A8EB-AA61-4DE8-B405-09B41F72F438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4817688" y="11181472"/>
+          <a:ext cx="543527" cy="534279"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380996</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2233086</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="四角形: 角を丸くする 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D91B49-DA9C-40DE-B67F-71506274856F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1061353" y="734787"/>
+          <a:ext cx="1852090" cy="734784"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>後期（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月）に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会社評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自己評価を実施</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBF86E3-FC5D-4E53-88CF-178D56CF6EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913440" y="1101546"/>
+          <a:ext cx="1821847" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380996</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2233086</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="四角形: 角を丸くする 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA10C892-F328-4C11-8B4B-CAA3985FCD17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1061353" y="734787"/>
+          <a:ext cx="1852090" cy="734784"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>後期（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月）に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会社評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自己評価を実施</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03460A4A-5213-4E6D-9597-326E3A295928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913440" y="1101546"/>
+          <a:ext cx="1821847" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4971,9 +6719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA5D4F0-EAD4-4ED8-9441-3539A2CDA0B7}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4983,13 +6729,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5083,9 +6829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFBCAA-143B-41EC-885A-02CE727537B9}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5095,13 +6839,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5195,9 +6939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C5153-8D6D-4E4F-AF6C-6117CAA083FA}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5207,13 +6949,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5311,9 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88AEF95-F4B4-4005-9BBC-5F3F93050426}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5323,13 +7063,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5427,9 +7167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6F428-F9F9-48B5-BA12-0492E12987EA}">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5439,13 +7177,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5566,27 +7304,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE214E3-A0A7-436C-B4B9-0D017A235694}">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -5596,10 +7332,12 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
@@ -5634,110 +7372,137 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
@@ -5746,9 +7511,69 @@
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/仕様書/業務フロー図.xlsx
+++ b/仕様書/業務フロー図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210B38E4-D21A-44E6-9399-E7DDFAA4EDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90137F97-088E-486B-B558-83DE2CAFB1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="新入社員入社" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <sheet name="9月自己評価" sheetId="7" r:id="rId5"/>
     <sheet name="3月自己評価" sheetId="9" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3月自己評価'!$A$1:$C$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'9月自己評価'!$A$1:$C$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">会社評価管理!$A$1:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">自己評価管理!$A$1:$C$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">社員情報更新!$A$1:$C$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">新入社員入社!$A$1:$C$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -216,15 +224,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -247,10 +255,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -283,15 +288,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -314,10 +319,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -350,15 +352,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -381,7 +383,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -418,15 +420,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>233890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>233890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -473,15 +475,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -529,15 +531,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -584,15 +586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -640,15 +642,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -671,10 +673,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -716,15 +715,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -771,15 +770,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -826,15 +825,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -882,15 +881,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -946,15 +945,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1002,15 +1001,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1071,15 +1070,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1102,10 +1101,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1139,15 +1135,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1170,10 +1166,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1206,15 +1199,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1237,7 +1230,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1270,15 +1263,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>233890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>233890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1325,15 +1318,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1381,15 +1374,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1436,15 +1429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1492,15 +1485,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1523,10 +1516,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1560,15 +1550,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1615,15 +1605,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1670,15 +1660,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1726,15 +1716,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1790,15 +1780,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1846,15 +1836,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1915,15 +1905,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1946,10 +1936,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1991,15 +1978,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2022,10 +2009,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2058,15 +2042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2089,7 +2073,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2122,15 +2106,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2177,15 +2161,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2233,15 +2217,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2288,15 +2272,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2344,15 +2328,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2375,10 +2359,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2412,15 +2393,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2467,15 +2448,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2522,15 +2503,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2578,15 +2559,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2642,15 +2623,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2698,15 +2679,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,15 +2748,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2798,10 +2779,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2843,15 +2821,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2874,10 +2852,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2910,15 +2885,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2941,7 +2916,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2974,15 +2949,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3029,15 +3004,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3085,15 +3060,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3140,15 +3115,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3196,15 +3171,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3227,10 +3202,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3264,15 +3236,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3319,15 +3291,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3374,15 +3346,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3430,15 +3402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3494,15 +3466,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3550,15 +3522,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3619,15 +3591,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3650,10 +3622,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3703,15 +3672,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3734,10 +3703,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3778,15 +3744,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3833,15 +3799,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3889,15 +3855,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3944,15 +3910,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4000,15 +3966,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4031,7 +3997,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4070,15 +4036,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4094,17 +4060,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066796" y="723901"/>
-          <a:ext cx="1852090" cy="714374"/>
+          <a:off x="1061353" y="734787"/>
+          <a:ext cx="1852090" cy="734784"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4162,15 +4125,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4186,17 +4149,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781423" y="1676401"/>
-          <a:ext cx="1852090" cy="714374"/>
+          <a:off x="3782784" y="1714501"/>
+          <a:ext cx="1852090" cy="734785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4237,15 +4197,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2233083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4292,15 +4252,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4348,15 +4308,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4403,15 +4363,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4459,15 +4419,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4483,14 +4443,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6612461" y="2631700"/>
-          <a:ext cx="3021236" cy="949700"/>
+          <a:off x="6620625" y="2697014"/>
+          <a:ext cx="3021236" cy="976915"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4524,15 +4484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4548,17 +4508,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3776380" y="3776384"/>
-          <a:ext cx="1852090" cy="705969"/>
+          <a:off x="3782784" y="3918859"/>
+          <a:ext cx="1852090" cy="734784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4599,15 +4556,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4655,15 +4612,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4710,15 +4667,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4766,15 +4723,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>14006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4790,14 +4747,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604617" y="4731682"/>
-          <a:ext cx="3021236" cy="938494"/>
+          <a:off x="6620625" y="4912577"/>
+          <a:ext cx="3021236" cy="976914"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="92D050"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4831,15 +4788,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4887,15 +4844,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>403415</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2255505</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4911,17 +4868,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3798797" y="5894294"/>
-          <a:ext cx="1852090" cy="705969"/>
+          <a:off x="3805201" y="6123214"/>
+          <a:ext cx="1852090" cy="725179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4955,15 +4909,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2252384</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2014569</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5010,15 +4964,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2013940</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>124698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2013940</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5066,15 +5020,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>884465</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3143251</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5097,10 +5051,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5142,15 +5093,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>179296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5166,14 +5117,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6454588" y="7900147"/>
-          <a:ext cx="1075765" cy="762002"/>
+          <a:off x="6470596" y="8205908"/>
+          <a:ext cx="1075765" cy="790817"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -5233,15 +5184,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2017059</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2017059</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5289,15 +5240,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2005854</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2005854</xdr:colOff>
-      <xdr:row>33</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5344,15 +5295,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1165415</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2891121</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>100851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5368,17 +5319,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7272621" y="9054353"/>
-          <a:ext cx="1725706" cy="705969"/>
+          <a:off x="7288629" y="9408139"/>
+          <a:ext cx="1725706" cy="734783"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5428,15 +5376,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2891118</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3891643</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5459,7 +5407,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -5519,15 +5467,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2028265</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2879913</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2879913</xdr:colOff>
-      <xdr:row>38</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5574,15 +5522,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2017057</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>100851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2028268</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>190497</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5632,15 +5580,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1165413</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>201703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2891119</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>201702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5656,17 +5604,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7272619" y="11273115"/>
-          <a:ext cx="1725706" cy="705969"/>
+          <a:off x="7288627" y="11713346"/>
+          <a:ext cx="1725706" cy="734785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5700,15 +5645,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3367368</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>4558393</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>20013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5731,7 +5676,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -5791,15 +5736,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2891119</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>78043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>3367368</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>79239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5849,15 +5794,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2341947</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1165413</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>79239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5908,15 +5853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2341947</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>194501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5939,10 +5884,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5976,15 +5918,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1959429</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>429026</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>101656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6007,7 +5949,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -6067,15 +6009,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1415902</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>159686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1959429</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6096,300 +6038,6 @@
         <a:xfrm flipH="1">
           <a:off x="4817688" y="11181472"/>
           <a:ext cx="543527" cy="534279"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="四角形: 角を丸くする 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D91B49-DA9C-40DE-B67F-71506274856F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1061353" y="734787"/>
-          <a:ext cx="1852090" cy="734784"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>後期（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月）に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>会社評価</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自己評価を実施</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBF86E3-FC5D-4E53-88CF-178D56CF6EBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913440" y="1101546"/>
-          <a:ext cx="1821847" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="四角形: 角を丸くする 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA10C892-F328-4C11-8B4B-CAA3985FCD17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1061353" y="734787"/>
-          <a:ext cx="1852090" cy="734784"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>後期（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>月）に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>会社評価</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自己評価を実施</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121832</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線コネクタ 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03460A4A-5213-4E6D-9597-326E3A295928}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913440" y="1101546"/>
-          <a:ext cx="1821847" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6717,867 +6365,868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA5D4F0-EAD4-4ED8-9441-3539A2CDA0B7}">
-  <dimension ref="B2:D20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFBCAA-143B-41EC-885A-02CE727537B9}">
-  <dimension ref="B2:D20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C5153-8D6D-4E4F-AF6C-6117CAA083FA}">
-  <dimension ref="B2:D21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88AEF95-F4B4-4005-9BBC-5F3F93050426}">
-  <dimension ref="B2:D21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6F428-F9F9-48B5-BA12-0492E12987EA}">
-  <dimension ref="B2:D27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE214E3-A0A7-436C-B4B9-0D017A235694}">
-  <dimension ref="B2:D52"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="35.625" customWidth="1"/>
-    <col min="4" max="4" width="62.875" customWidth="1"/>
+    <col min="1" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書/業務フロー図.xlsx
+++ b/仕様書/業務フロー図.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90137F97-088E-486B-B558-83DE2CAFB1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8661B-269B-4993-A096-B36B86357C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9F0914F5-A7DE-4530-AB09-67BB789EF3FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="新入社員入社" sheetId="1" r:id="rId1"/>
-    <sheet name="社員情報更新" sheetId="4" r:id="rId2"/>
-    <sheet name="自己評価管理" sheetId="5" r:id="rId3"/>
-    <sheet name="会社評価管理" sheetId="6" r:id="rId4"/>
-    <sheet name="9月自己評価" sheetId="7" r:id="rId5"/>
-    <sheet name="3月自己評価" sheetId="9" r:id="rId6"/>
+    <sheet name="新入社員入社｜社員情報更新" sheetId="1" r:id="rId1"/>
+    <sheet name="自己評価管理｜会社評価管理" sheetId="5" r:id="rId2"/>
+    <sheet name="前期(9月)評価｜後期(3月)評価" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3月自己評価'!$A$1:$C$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'9月自己評価'!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">会社評価管理!$A$1:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">自己評価管理!$A$1:$C$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">社員情報更新!$A$1:$C$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">新入社員入社!$A$1:$C$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'自己評価管理｜会社評価管理'!$B$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'新入社員入社｜社員情報更新'!$B$1:$D$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'前期(9月)評価｜後期(3月)評価'!$B$1:$D$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>会社評価システム</t>
     <rPh sb="0" eb="4">
@@ -80,12 +74,45 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>新入社員入社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己評価管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社評価管理</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期(3月)評価</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前期(9月)評価</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +132,15 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -187,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +237,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -224,15 +269,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -288,15 +333,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -352,15 +397,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -420,15 +465,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -475,15 +520,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -531,15 +576,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -586,15 +631,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -642,15 +687,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -715,15 +760,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -770,15 +815,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -825,15 +870,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -881,15 +926,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -945,15 +990,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1001,15 +1046,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1063,30 +1108,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B08764-02B0-48B9-B047-7873E348DAF7}"/>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77B4326-8507-4931-8B82-38F82C8C5DE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066796" y="723901"/>
+          <a:off x="380996" y="485776"/>
           <a:ext cx="1852090" cy="476249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1135,23 +1175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911D5705-2994-4D69-A102-55C812BB6BB0}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEAEDBB-963D-4AAD-81E8-F023BB28320C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,7 +1199,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781423" y="1438276"/>
+          <a:off x="3095623" y="1200151"/>
           <a:ext cx="1852090" cy="476249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1199,23 +1239,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3828AE15-F4AC-400A-8175-DC1D14FCC03E}"/>
+        <xdr:cNvPr id="7" name="フローチャート: 磁気ディスク 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C1BB73-416F-41B7-9757-4212723D2813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7187695" y="3581400"/>
+          <a:off x="6501895" y="3343275"/>
           <a:ext cx="1852090" cy="711572"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1263,23 +1303,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8E0811-0BA2-4F1B-B2C3-57AD496EA366}"/>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319BEA4B-80AF-477E-93E7-D04F0477269B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1327,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2918883" y="957790"/>
+          <a:off x="2233083" y="719665"/>
           <a:ext cx="1815043" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1318,23 +1358,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B8A23C-4DCE-4507-AAFC-593F04552F4F}"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C58E70-F0D8-4B28-B48C-E7170CCC709E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1382,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="956732"/>
+          <a:off x="4048125" y="718607"/>
           <a:ext cx="0" cy="477309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1374,23 +1414,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C5A467-A1F5-487D-BC92-05E608672B63}"/>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D778DC-304A-4EB7-B24B-F79734AC49D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1438,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5644093" y="1672165"/>
+          <a:off x="4958293" y="1434040"/>
           <a:ext cx="2476810" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1429,23 +1469,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076E48F5-B58C-4D2C-BA7A-C60163C1623F}"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560B9393-73B1-4C73-BC6C-D5D9AEB73FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1493,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120274" y="1671107"/>
+          <a:off x="7434474" y="1432982"/>
           <a:ext cx="0" cy="477309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1485,23 +1525,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 判断 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC3B511-8E83-4078-994B-F4F224CA7599}"/>
+        <xdr:cNvPr id="14" name="フローチャート: 判断 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CBCCA0-3BFB-44D9-8460-9D0F385C4A45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6612461" y="2155450"/>
+          <a:off x="5926661" y="1917325"/>
           <a:ext cx="3021236" cy="949700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -1550,23 +1590,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83B021C-E301-40D2-9AC5-3407277D0E7C}"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8666F7D6-857A-4A99-AFF2-9212CF7FD4E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1614,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543299" y="2631668"/>
+          <a:off x="2857499" y="2393543"/>
           <a:ext cx="3058583" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1605,23 +1645,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1E839D-C80B-4355-87A4-2C0322D9FF77}"/>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6755780D-1980-49E5-879C-4A8DAA5D3F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1669,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3540656" y="1664494"/>
+          <a:off x="2854856" y="1426369"/>
           <a:ext cx="0" cy="975612"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1660,23 +1700,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA6404E-B433-4CDF-9BB4-91AA7A39F52A}"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DE360D-5DDD-40B0-B0CA-4F1A3F52A4F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1724,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3538373" y="1664494"/>
+          <a:off x="2852573" y="1426369"/>
           <a:ext cx="254957" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1716,23 +1756,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D8C8FE-C162-49E2-81BD-490927D57255}"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FE09E8-C1C9-4E1A-882C-FF38453AE81C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6171079" y="2354357"/>
+          <a:off x="5485279" y="2116232"/>
           <a:ext cx="493059" cy="319367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1780,23 +1820,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDC4769-1308-44F8-9222-1BD7F3B103DF}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C016BA10-E247-494C-BBA9-F8BC1A9711F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1844,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120274" y="3099857"/>
+          <a:off x="7434474" y="2861732"/>
           <a:ext cx="0" cy="477309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1836,23 +1876,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7EFB12-A9EC-4DF4-A3FB-BE99D65827C2}"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BD3EFD-1748-4D8E-B096-6B2343493772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8109697" y="3091145"/>
+          <a:off x="7423897" y="2853020"/>
           <a:ext cx="493059" cy="319367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1901,19 +1941,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1978,15 +2018,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2042,15 +2082,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2106,15 +2146,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2161,15 +2201,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2217,15 +2257,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2272,15 +2312,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2328,15 +2368,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2393,15 +2433,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2448,15 +2488,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2503,15 +2543,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2559,15 +2599,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2623,15 +2663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2679,15 +2719,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2741,30 +2781,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF9CC03-96BD-461C-A5E8-553149FC1C5A}"/>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8098CDB2-3D16-411A-AE9C-B94F79B54F2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2807,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066796" y="723901"/>
+          <a:off x="380996" y="485776"/>
           <a:ext cx="1852090" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2821,23 +2856,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3CBEF5-06A2-4EE3-96C8-2BE191000B10}"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F42850E-B34C-4E90-AEDC-5831E7355824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781423" y="1676401"/>
+          <a:off x="3095623" y="1438276"/>
           <a:ext cx="1852090" cy="476249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2885,23 +2920,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1072645</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2924735</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071A46CE-42BD-4D8E-ADD1-4AEE20FC2018}"/>
+        <xdr:cNvPr id="18" name="フローチャート: 磁気ディスク 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F87186-BD13-42B4-921D-C8D45BB64FC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7187695" y="3819525"/>
+          <a:off x="6501895" y="3581400"/>
           <a:ext cx="1852090" cy="711572"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2949,23 +2984,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CBE476-385F-4DDB-8286-6321BE0495BA}"/>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBAD21D-FE42-4CA6-8821-BB5E35A39093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +3008,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2918883" y="1083857"/>
+          <a:off x="2233083" y="845732"/>
           <a:ext cx="1815043" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3004,23 +3039,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B740AF-B008-4FBE-B02C-F252392FDB5A}"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CB431C-35F2-41CC-A77B-F77C0BE645A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3063,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="1085290"/>
+          <a:off x="4048125" y="847165"/>
           <a:ext cx="0" cy="586876"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3060,23 +3095,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>233890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8840F4-A132-4F3D-99D0-3D0F150CFB3C}"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5E0D31-7D18-4F56-B57F-9327DA03E95C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3119,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5644093" y="1910290"/>
+          <a:off x="4958293" y="1672165"/>
           <a:ext cx="2476810" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3115,23 +3150,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AAFD05-FA55-42BF-96E3-BC3B88945CBD}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9CC773-D7D8-4AA9-A777-8DB149F6E29D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3174,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120274" y="1909232"/>
+          <a:off x="7434474" y="1671107"/>
           <a:ext cx="0" cy="477309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3171,23 +3206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 判断 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE0345-1ADA-40AA-9822-42D4CED4024B}"/>
+        <xdr:cNvPr id="23" name="フローチャート: 判断 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93AA948-104B-4014-9F15-6A3DFE4F5B48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6612461" y="2393575"/>
+          <a:off x="5926661" y="2155450"/>
           <a:ext cx="3021236" cy="949700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3236,23 +3271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>486832</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>2768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B493DF4-F229-44D4-8910-02C3F1D10AF4}"/>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D9E310-E531-4212-B8B0-D072B11E9A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3295,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543299" y="2869793"/>
+          <a:off x="2857499" y="2631668"/>
           <a:ext cx="3058583" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3291,23 +3326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>140231</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872A078F-3B3E-4767-90D7-222F330102F4}"/>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F34AA9-EDF9-4E44-829F-4259ABE51D49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3350,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3540656" y="1902619"/>
+          <a:off x="2854856" y="1664494"/>
           <a:ext cx="0" cy="975612"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3346,23 +3381,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>137948</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>392905</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F992830-9F2B-4D37-8479-E3BDDF6F4EA1}"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F3A5CA-0EB4-420E-8598-B8F8BBAAAA28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3405,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3538373" y="1902619"/>
+          <a:off x="2852573" y="1664494"/>
           <a:ext cx="254957" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3402,23 +3437,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C8EE74-A6AA-40F4-B646-2D306D13D91E}"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A964946-9A3C-410A-B2EA-F4956C8E2CFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3461,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6171079" y="2592482"/>
+          <a:off x="5485279" y="2354357"/>
           <a:ext cx="493059" cy="319367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3466,23 +3501,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>232832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C6048-A650-4A90-8F79-7CE7022D4F86}"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8963E6-C1D6-49A8-BB2F-2DF0E1B7925B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3525,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120274" y="3337982"/>
+          <a:off x="7434474" y="3099857"/>
           <a:ext cx="0" cy="477309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3522,23 +3557,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1994647</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>224120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2487706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47E3D3B-8A28-4A5A-8793-6B143C6F8857}"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADD0C55-49F6-4214-A85A-6E7C48356EC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8109697" y="3329270"/>
+          <a:off x="7423897" y="3091145"/>
           <a:ext cx="493059" cy="319367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3587,19 +3622,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3672,15 +3707,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3744,15 +3779,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3799,15 +3834,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3855,15 +3890,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3910,15 +3945,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3966,15 +4001,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4029,30 +4064,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>380996</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233086</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D91E31F-C650-4E34-BB0C-68925A9B6D22}"/>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EE47A6-4C53-4E1B-A582-BB9E0BDCD5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,8 +4090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1061353" y="734787"/>
-          <a:ext cx="1852090" cy="734784"/>
+          <a:off x="380996" y="485776"/>
+          <a:ext cx="1852090" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4125,23 +4155,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB2C53C-6E15-4CED-9552-4EFB0DA1C791}"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752DCD6-80C8-44BB-AC61-32A4F47FA22C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,8 +4179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3782784" y="1714501"/>
-          <a:ext cx="1852090" cy="734785"/>
+          <a:off x="3095623" y="1438276"/>
+          <a:ext cx="1852090" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4197,23 +4227,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2233083</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ACAD14-E197-48CA-9371-81701C64169B}"/>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AF613F-D6C4-42C9-B81D-387DD7C958D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4251,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2918883" y="1083857"/>
+          <a:off x="2233083" y="845732"/>
           <a:ext cx="1815043" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4252,23 +4282,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19CBDEF-B2E4-4B80-B8AE-2688ABA200AC}"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9370157D-CCC6-4694-AC00-CB4442EEBD7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,7 +4306,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="1085290"/>
+          <a:off x="4048125" y="847165"/>
           <a:ext cx="0" cy="586876"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4308,23 +4338,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>110627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55F20E2-E3D5-43FD-8257-3131AEE315A1}"/>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C1E065-12F8-4059-8B40-AAD75779FA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4332,7 +4362,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5644093" y="2025152"/>
+          <a:off x="4958293" y="1787027"/>
           <a:ext cx="2476810" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4363,23 +4393,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>233891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4699F9-F9D4-44C7-835C-21072EBEAE1C}"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F83B2AE-576E-4A8B-B4C0-F80FF83927D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4417,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8120274" y="2026584"/>
+          <a:off x="7434474" y="1788459"/>
           <a:ext cx="0" cy="598082"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4419,23 +4449,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>2800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C1B5B9-8BC3-493A-B24E-5AB0613D88BA}"/>
+        <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A871925-4C24-4A79-BDE5-79E9FD10341E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4443,8 +4473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6620625" y="2697014"/>
-          <a:ext cx="3021236" cy="976915"/>
+          <a:off x="5926661" y="2393575"/>
+          <a:ext cx="3021236" cy="949700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4484,23 +4514,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2233088</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B24979-53F8-1AFD-B981-9CA8EF0AA227}"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58A96F3-FD10-4FD4-889A-38E61054E656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4508,8 +4538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3782784" y="3918859"/>
-          <a:ext cx="1852090" cy="734784"/>
+          <a:off x="3095623" y="3581402"/>
+          <a:ext cx="1852090" cy="714373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4556,23 +4586,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E01EAC-C993-E58F-A04A-4ADFF2693F27}"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7548D13-A59A-43DB-B896-BB491AABD9BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,8 +4610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4728882" y="2364441"/>
-          <a:ext cx="0" cy="1411941"/>
+          <a:off x="4048125" y="2152650"/>
+          <a:ext cx="0" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4612,23 +4642,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2243668</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005853</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>121832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE1BA39-2FCE-36A6-89BD-DFFCCDCCF90E}"/>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61364405-1075-4633-A605-6633A4987E36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4636,8 +4666,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5639050" y="4133538"/>
-          <a:ext cx="2474009" cy="0"/>
+          <a:off x="4958293" y="3941357"/>
+          <a:ext cx="2476810" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4667,23 +4697,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005224</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706BE607-783E-CA29-3E24-CB8967FC6467}"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47F5CF5-A199-4C6C-A61B-971BC390837B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4691,8 +4721,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8112430" y="4134970"/>
-          <a:ext cx="0" cy="592479"/>
+          <a:off x="7434474" y="3942789"/>
+          <a:ext cx="0" cy="600884"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4723,23 +4753,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>497411</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>14006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="フローチャート: 磁気ディスク 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34EB06F-50BF-487B-990D-C2AE1C35CE61}"/>
+        <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DB6955-C573-4CF1-9AE4-9ED5F48EE280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4747,8 +4777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6620625" y="4912577"/>
-          <a:ext cx="3021236" cy="976914"/>
+          <a:off x="5926661" y="4547906"/>
+          <a:ext cx="3021236" cy="949699"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4788,23 +4818,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1333499</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB99EBA-F88B-49CD-9819-B48A729F47E0}"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A3CDCE-572D-49CB-BE37-B5BD83024C7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4812,8 +4842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4728881" y="4482353"/>
-          <a:ext cx="0" cy="1411941"/>
+          <a:off x="4048124" y="4295775"/>
+          <a:ext cx="0" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4844,23 +4874,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>403415</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2255505</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FD7DCC-14DC-4BC5-AD92-8F5FBD048245}"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0124862-8C1D-42F5-8C6C-DEB5478FE711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4868,8 +4898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3805201" y="6123214"/>
-          <a:ext cx="1852090" cy="725179"/>
+          <a:off x="3118040" y="5724525"/>
+          <a:ext cx="1852090" cy="711572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4909,23 +4939,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2252384</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2014569</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC8FED2-1292-46C4-ABE0-60403867D3EF}"/>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861ACBB9-9C44-4CEA-B638-2AD054C0DC50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,8 +4963,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5647766" y="6252884"/>
-          <a:ext cx="2474009" cy="0"/>
+          <a:off x="4967009" y="6085916"/>
+          <a:ext cx="2476810" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4964,23 +4994,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2013940</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>124698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2013940</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3154B648-7356-4210-A260-EBF086997220}"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0D6A96-C8DF-417C-B3C4-F7E47C31C77E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,8 +5018,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8121146" y="6254316"/>
-          <a:ext cx="0" cy="592479"/>
+          <a:off x="7443190" y="6087348"/>
+          <a:ext cx="0" cy="600884"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5020,23 +5050,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>884465</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3143251</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DED302E-1659-4723-8421-A151299D32E7}"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202A462E-7E0C-4779-9D55-61A6E5ECCF75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5044,8 +5074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7007679" y="7102929"/>
-          <a:ext cx="2258786" cy="725179"/>
+          <a:off x="6313715" y="6677025"/>
+          <a:ext cx="2258786" cy="711572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5093,23 +5123,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>179296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="フローチャート: 書類 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D706003-4E65-7D0B-9B9E-2105BB333F1A}"/>
+        <xdr:cNvPr id="26" name="フローチャート: 書類 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC94A56-36EF-4380-82AA-E14C519FB3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,8 +5147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6470596" y="8205908"/>
-          <a:ext cx="1075765" cy="790817"/>
+          <a:off x="5776632" y="7752790"/>
+          <a:ext cx="1075765" cy="770406"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -5184,23 +5214,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2017059</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2017059</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF66B29-006B-4173-AD3E-04306EA97A75}"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5C4A10-61D3-4363-97C9-0585AFA4E9FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,8 +5238,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124265" y="7541559"/>
-          <a:ext cx="0" cy="1501588"/>
+          <a:off x="7446309" y="7391400"/>
+          <a:ext cx="0" cy="1518397"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5240,23 +5270,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2005854</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038864F4-7D45-4955-8E3E-C81EC261EE18}"/>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BCF48A-373B-494B-BD38-D0F46D6496F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5264,8 +5294,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7261412" y="7552765"/>
-          <a:ext cx="851648" cy="336176"/>
+          <a:off x="6583456" y="7402606"/>
+          <a:ext cx="851648" cy="338978"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5295,23 +5325,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1165415</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2891121</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>100851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0647EDE7-AFC9-4F24-96FC-3F7E456FEE7B}"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43576EA-3CCC-4327-8F67-4F198A6E1056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,8 +5349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7288629" y="9408139"/>
-          <a:ext cx="1725706" cy="734783"/>
+          <a:off x="6594665" y="8921003"/>
+          <a:ext cx="1725706" cy="714373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5376,23 +5406,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2891118</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3891643</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="フローチャート: 書類 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5F0082-947F-476F-A8F1-AA7EA8D1C4F4}"/>
+        <xdr:cNvPr id="30" name="フローチャート: 書類 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB77B3B-963E-4CC1-B2D4-B8E38AB3D6B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,8 +5430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9014332" y="8422821"/>
-          <a:ext cx="1000525" cy="818831"/>
+          <a:off x="8320368" y="7962900"/>
+          <a:ext cx="1000525" cy="798420"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -5467,23 +5497,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2028265</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2879913</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE158A0-AB1D-4525-AA49-2D67261A37EC}"/>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372624BF-13C9-42FA-9BDD-1EED1F1ADC98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5491,8 +5521,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8135471" y="8718176"/>
-          <a:ext cx="851648" cy="336176"/>
+          <a:off x="7457515" y="8582025"/>
+          <a:ext cx="851648" cy="338977"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5522,34 +5552,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2017057</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>100851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2028268</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>190497</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F6B6F6-AA28-47F9-8CC2-131959688D9A}"/>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CEED08-32D2-44E7-9F01-E63D7A721302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="2"/>
+          <a:stCxn id="29" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8140271" y="10142922"/>
-          <a:ext cx="11211" cy="1559218"/>
+          <a:off x="7446307" y="9635376"/>
+          <a:ext cx="11211" cy="1518396"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5580,23 +5610,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1165413</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>201703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2891119</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>201702</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2FE4E-6898-4F63-9F94-E1F745928035}"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47179F5-DAB1-4429-98E2-162B472EB7B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5604,8 +5634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7288627" y="11713346"/>
-          <a:ext cx="1725706" cy="734785"/>
+          <a:off x="6594663" y="11164978"/>
+          <a:ext cx="1725706" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5645,23 +5675,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3367368</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>4558393</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>20013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート: 書類 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D35327-D464-49F2-B29E-137B61D00FA1}"/>
+        <xdr:cNvPr id="34" name="フローチャート: 書類 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5E9D0B-BA02-4271-A985-7A7B616C4DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5669,8 +5699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9490582" y="11647715"/>
-          <a:ext cx="1191025" cy="863655"/>
+          <a:off x="8796618" y="11099347"/>
+          <a:ext cx="1191025" cy="836441"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -5736,34 +5766,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2891119</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>78043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3367368</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>79239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5723B3D9-1CD8-420F-B893-AF4CE88E0D69}"/>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADEF499-05D0-438E-8468-7B9D05B8076A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="1"/>
-          <a:endCxn id="32" idx="3"/>
+          <a:stCxn id="34" idx="1"/>
+          <a:endCxn id="33" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9014333" y="12079543"/>
+          <a:off x="8320369" y="11517568"/>
           <a:ext cx="476249" cy="1196"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5794,35 +5824,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2341947</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1165413</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>79239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738C7C7F-D97D-4DF5-A859-EFB74A219DB0}"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155D07C9-A3AE-4711-9061-2284B24D887A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
-          <a:endCxn id="60" idx="3"/>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5743733" y="12078341"/>
-          <a:ext cx="1544894" cy="2398"/>
+          <a:off x="5056572" y="11516366"/>
+          <a:ext cx="1538091" cy="2398"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5853,23 +5883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2341947</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>194501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BB5C50-A849-4603-8F2D-EF18FB3D64D9}"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D35B847-D570-4B81-B065-1B83891BE867}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5877,8 +5907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3891643" y="11715751"/>
-          <a:ext cx="1852090" cy="725179"/>
+          <a:off x="3204482" y="11167383"/>
+          <a:ext cx="1852090" cy="704768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5918,23 +5948,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1959429</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>429026</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>101656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="フローチャート: 書類 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88542FD-A650-4AB9-BCF2-008230E5C7FA}"/>
+        <xdr:cNvPr id="38" name="フローチャート: 書類 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24335AB8-5AF4-4C89-8D20-13C28949CC28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,8 +5972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5361215" y="10749644"/>
-          <a:ext cx="1191025" cy="863655"/>
+          <a:off x="4674054" y="10228490"/>
+          <a:ext cx="1184222" cy="836441"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -6009,35 +6039,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1415902</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>159686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1959429</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線コネクタ 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A832A8EB-AA61-4DE8-B405-09B41F72F438}"/>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17AE208-B3FC-4745-B914-FB02FA1CA754}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-          <a:endCxn id="60" idx="0"/>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="37" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4817688" y="11181472"/>
-          <a:ext cx="543527" cy="534279"/>
+          <a:off x="4130527" y="10646711"/>
+          <a:ext cx="543527" cy="520672"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6368,865 +6398,897 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="B1:D45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="2" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B25:D27"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAFBCAA-143B-41EC-885A-02CE727537B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C5153-8D6D-4E4F-AF6C-6117CAA083FA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="B1:D47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="2" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B26:D28"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645C5153-8D6D-4E4F-AF6C-6117CAA083FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6F428-F9F9-48B5-BA12-0492E12987EA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="B1:D76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="2" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88AEF95-F4B4-4005-9BBC-5F3F93050426}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6F428-F9F9-48B5-BA12-0492E12987EA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE214E3-A0A7-436C-B4B9-0D017A235694}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="62.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="B23:D25"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>